--- a/biology/Botanique/Julianiaceae/Julianiaceae.xlsx
+++ b/biology/Botanique/Julianiaceae/Julianiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Julianiacées regroupe des plantes dicotylédones. Selon Watson et Dallwitz elle comprend 5 espèces réparties en deux genres :
 Amphipterygium (en)
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Juliania Schltdl., 1843[3] or ce genre fut invalidé car existait déjà le genre Juliania La Llave, 1825. Les deux genres furent créés en hommage au médecin, pharmacien-chimiste et botaniste mexicain Julián Cervantes frère du botaniste Vicente Cervantes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Juliania Schltdl., 1843 or ce genre fut invalidé car existait déjà le genre Juliania La Llave, 1825. Les deux genres furent créés en hommage au médecin, pharmacien-chimiste et botaniste mexicain Julián Cervantes frère du botaniste Vicente Cervantes.
 </t>
         </is>
       </c>
@@ -546,12 +560,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La famille des Julianiaceae
-En classification phylogénétique APG (1998)[4] et en classification phylogénétique APG II (2003)[5] cette famille n'existe pas : ces plantes sont assignées aux Anacardiacées.
-Le genre Juliania
-Juliania n'est plus utilisé en tant que genre botanique[note 1].
-Le genre Juliania Schltdl.[6], fut remplacé par le genre Amphipterygium (en), Schiede ex Standl.(synonymes : Hypopterygium Schltdl. et Juliania Schltdl.)[7], de la famille des Anacardiaceae.
-Le genre Juliania La Llave[8],[9], est devenu quasi-synonyme du genre Choisya, de la famille des Rutaceae.
+          <t>La famille des Julianiaceae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification phylogénétique APG (1998) et en classification phylogénétique APG II (2003) cette famille n'existe pas : ces plantes sont assignées aux Anacardiacées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Julianiaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Julianiaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le genre Juliania</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juliania n'est plus utilisé en tant que genre botanique[note 1].
+Le genre Juliania Schltdl., fut remplacé par le genre Amphipterygium (en), Schiede ex Standl.(synonymes : Hypopterygium Schltdl. et Juliania Schltdl.), de la famille des Anacardiaceae.
+Le genre Juliania La Llave est devenu quasi-synonyme du genre Choisya, de la famille des Rutaceae.
 </t>
         </is>
       </c>
